--- a/biology/Histoire de la zoologie et de la botanique/Remington_Kellogg/Remington_Kellogg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Remington_Kellogg/Remington_Kellogg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Remington Kellogg, dit Remington Kellogg, né le 5 octobre 1892 et mort le 8 mai 1969, est un naturaliste américain, ancien directeur du United States National Museum. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Davenport, dans l'Iowa. Son nom de naissance est Arthur Remington Kellogg, mais il refuse rapidement d'utiliser « Arthur ». Dès son plus jeune âge, il a consacré son temps libre à l’étude de la faune. Il a constitué sa propre petite collection d'oiseaux naturalisés et de mammifères. Au moment de choisir une université, il avait décidé de devenir naturaliste. Il a choisi l'université du Kansas pour ses cours dans le domaine de son choix, il a d'abord étudié l'entomologie, avant de passer à l'étude des mammifères. De 1913 à 1916, il a travaillé sous la direction de Charles D. Bunker, conservateur des oiseaux et des mammifères au musée d'histoire naturelle de l'université. Il a publié son premier article à la suite de son travail avec Bunker. Kellogg a obtenu son diplôme en 1915 et a obtenu sa maîtrise l'année suivante.
 Après avoir obtenu son diplôme, il a immédiatement commencé à travailler pour le Bureau of Biological Survey des États-Unis au Kansas et au Dakota du Nord. Fin 1915, le bureau paya son voyage à Washington DC, d'où il entreprit de visiter les musées des états de l'est.  À la même époque, il décide de se spécialiser dans l'étude des mammifères marins. En 1916, il s'inscrit à l'université de Californie à Berkeley où il étudie en vue d'un doctorat en zoologie. Il a reçu une bourse d’enseignement à la demande de John Campbell Merriam et a étudié les pinnipèdes fossiles. Il a publié ses premiers articles importants sur le sujet en 1920 et 1921.
